--- a/0咪咕音乐/咪咕音乐sdkv380-包含aiui/aiui语音输入搜索场景测试.xlsx
+++ b/0咪咕音乐/咪咕音乐sdkv380-包含aiui/aiui语音输入搜索场景测试.xlsx
@@ -1034,10 +1034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1103,9 +1103,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,6 +1171,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1127,30 +1193,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1162,23 +1217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,58 +1247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1279,7 +1279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1303,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,31 +1423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,121 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,20 +1549,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,6 +1567,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,22 +1614,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,15 +1644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1652,10 +1652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1664,140 +1664,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,23 +1853,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1894,56 +1882,26 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2274,9 +2232,9 @@
   <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77:J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="54" customHeight="1"/>
@@ -2347,16 +2305,16 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2421,10 +2379,10 @@
         <v>23</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="9"/>
@@ -2454,10 +2412,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="9"/>
@@ -2537,7 +2495,7 @@
       <c r="H8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="23" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -2549,11 +2507,11 @@
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A9" s="16"/>
@@ -2574,7 +2532,7 @@
       <c r="H9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -2585,12 +2543,12 @@
         <v>26</v>
       </c>
       <c r="M9" s="12"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A10" s="16"/>
@@ -2611,7 +2569,7 @@
       <c r="H10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -2623,11 +2581,11 @@
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A11" s="16"/>
@@ -2648,7 +2606,7 @@
       <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -2660,11 +2618,11 @@
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A12" s="16"/>
@@ -2685,7 +2643,7 @@
       <c r="H12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -2695,13 +2653,13 @@
       <c r="L12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A13" s="16"/>
@@ -2722,7 +2680,7 @@
       <c r="H13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -2732,13 +2690,13 @@
       <c r="L13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A14" s="16"/>
@@ -2759,7 +2717,7 @@
       <c r="H14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -2769,13 +2727,13 @@
       <c r="L14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A15" s="16"/>
@@ -2796,7 +2754,7 @@
       <c r="H15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -2806,13 +2764,13 @@
       <c r="L15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A16" s="16"/>
@@ -2833,7 +2791,7 @@
       <c r="H16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -2843,13 +2801,13 @@
       <c r="L16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="35"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A17" s="16"/>
@@ -2870,7 +2828,7 @@
       <c r="H17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -2880,13 +2838,13 @@
       <c r="L17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="35"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A18" s="16"/>
@@ -2905,7 +2863,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="23" t="s">
         <v>80</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -2917,11 +2875,11 @@
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A19" s="11"/>
@@ -2940,7 +2898,7 @@
         <v>23</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="23" t="s">
         <v>84</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -2952,16 +2910,16 @@
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="14" t="s">
         <v>86</v>
       </c>
@@ -2975,7 +2933,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -2987,16 +2945,16 @@
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="14" t="s">
         <v>90</v>
       </c>
@@ -3010,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="23" t="s">
         <v>92</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -3022,16 +2980,16 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="14" t="s">
         <v>94</v>
       </c>
@@ -3045,7 +3003,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="23" t="s">
         <v>96</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -3057,16 +3015,16 @@
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="14" t="s">
         <v>98</v>
       </c>
@@ -3080,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -3092,16 +3050,16 @@
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="14" t="s">
         <v>102</v>
       </c>
@@ -3115,7 +3073,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="23" t="s">
         <v>104</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -3127,16 +3085,16 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="14" t="s">
         <v>106</v>
       </c>
@@ -3150,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="23" t="s">
         <v>108</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -3162,16 +3120,16 @@
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="14" t="s">
         <v>110</v>
       </c>
@@ -3185,7 +3143,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="23" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -3197,16 +3155,16 @@
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="14" t="s">
         <v>114</v>
       </c>
@@ -3220,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="23" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="10" t="s">
@@ -3232,17 +3190,17 @@
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="19" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -3254,30 +3212,30 @@
       <c r="G28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="27" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="23" t="s">
         <v>119</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="20" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="19" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -3289,30 +3247,30 @@
       <c r="G29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="27" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="23" t="s">
         <v>122</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="19" t="s">
         <v>124</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -3324,30 +3282,30 @@
       <c r="G30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="27" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="23" t="s">
         <v>126</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3359,30 +3317,30 @@
       <c r="G31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="27" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="23" t="s">
         <v>130</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="19" t="s">
         <v>132</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -3394,30 +3352,30 @@
       <c r="G32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="27" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="23" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="19" t="s">
         <v>136</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -3429,30 +3387,30 @@
       <c r="G33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="27" t="s">
+      <c r="H33" s="9"/>
+      <c r="I33" s="23" t="s">
         <v>138</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -3464,30 +3422,30 @@
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="27" t="s">
+      <c r="H34" s="9"/>
+      <c r="I34" s="23" t="s">
         <v>142</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -3499,30 +3457,30 @@
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="27" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="23" t="s">
         <v>146</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="19" t="s">
         <v>148</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -3534,30 +3492,30 @@
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="27" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="23" t="s">
         <v>150</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -3569,30 +3527,30 @@
       <c r="G37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="27" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="23" t="s">
         <v>154</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="19" t="s">
         <v>156</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -3604,30 +3562,30 @@
       <c r="G38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="27" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="23" t="s">
         <v>158</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="19" t="s">
         <v>160</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -3639,30 +3597,30 @@
       <c r="G39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="27" t="s">
+      <c r="H39" s="9"/>
+      <c r="I39" s="23" t="s">
         <v>162</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="19" t="s">
         <v>164</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -3674,30 +3632,30 @@
       <c r="G40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="27" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="23" t="s">
         <v>166</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -3709,30 +3667,30 @@
       <c r="G41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="27" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="23" t="s">
         <v>170</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="60" spans="1:19">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="19" t="s">
         <v>172</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -3744,24 +3702,24 @@
       <c r="G42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="27" t="s">
+      <c r="H42" s="9"/>
+      <c r="I42" s="23" t="s">
         <v>174</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
       <c r="A43" s="6"/>
@@ -3787,10 +3745,10 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -3803,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="H44" s="12"/>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="23" t="s">
         <v>179</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -3814,18 +3772,18 @@
         <v>26</v>
       </c>
       <c r="M44" s="12"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22" t="s">
         <v>180</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -3838,7 +3796,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="12"/>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="23" t="s">
         <v>182</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -3849,18 +3807,18 @@
         <v>26</v>
       </c>
       <c r="M45" s="12"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="26" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22" t="s">
         <v>183</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -3873,7 +3831,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="12"/>
-      <c r="I46" s="27" t="s">
+      <c r="I46" s="23" t="s">
         <v>185</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -3884,17 +3842,17 @@
         <v>26</v>
       </c>
       <c r="M46" s="12"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
         <v>187</v>
       </c>
       <c r="D47" s="7"/>
@@ -3915,10 +3873,10 @@
       <c r="S47" s="7"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -3931,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="23" t="s">
         <v>190</v>
       </c>
       <c r="J48" s="10" t="s">
@@ -3942,18 +3900,18 @@
         <v>26</v>
       </c>
       <c r="M48" s="12"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -3966,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="12"/>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="23" t="s">
         <v>193</v>
       </c>
       <c r="J49" s="10" t="s">
@@ -3977,18 +3935,18 @@
         <v>26</v>
       </c>
       <c r="M49" s="12"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -4001,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="23" t="s">
         <v>197</v>
       </c>
       <c r="J50" s="10" t="s">
@@ -4012,18 +3970,18 @@
         <v>26</v>
       </c>
       <c r="M50" s="12"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -4036,7 +3994,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="12"/>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="23" t="s">
         <v>201</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -4047,17 +4005,17 @@
         <v>26</v>
       </c>
       <c r="M51" s="12"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
         <v>203</v>
       </c>
       <c r="D52" s="7"/>
@@ -4078,10 +4036,10 @@
       <c r="S52" s="7"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -4094,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="12"/>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="23" t="s">
         <v>206</v>
       </c>
       <c r="J53" s="10" t="s">
@@ -4105,18 +4063,18 @@
         <v>26</v>
       </c>
       <c r="M53" s="12"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E54" s="10" t="s">
@@ -4129,7 +4087,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="12"/>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J54" s="10" t="s">
@@ -4140,18 +4098,18 @@
         <v>26</v>
       </c>
       <c r="M54" s="12"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
         <v>212</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -4164,7 +4122,7 @@
         <v>23</v>
       </c>
       <c r="H55" s="12"/>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="23" t="s">
         <v>214</v>
       </c>
       <c r="J55" s="10" t="s">
@@ -4175,18 +4133,18 @@
         <v>26</v>
       </c>
       <c r="M55" s="12"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -4199,7 +4157,7 @@
         <v>23</v>
       </c>
       <c r="H56" s="12"/>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="23" t="s">
         <v>193</v>
       </c>
       <c r="J56" s="10" t="s">
@@ -4210,18 +4168,18 @@
         <v>26</v>
       </c>
       <c r="M56" s="12"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="10" t="s">
@@ -4234,7 +4192,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="12"/>
-      <c r="I57" s="27" t="s">
+      <c r="I57" s="23" t="s">
         <v>197</v>
       </c>
       <c r="J57" s="10" t="s">
@@ -4245,18 +4203,18 @@
         <v>26</v>
       </c>
       <c r="M57" s="12"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -4269,7 +4227,7 @@
         <v>23</v>
       </c>
       <c r="H58" s="12"/>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="23" t="s">
         <v>201</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -4280,17 +4238,17 @@
         <v>26</v>
       </c>
       <c r="M58" s="12"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25" t="s">
         <v>222</v>
       </c>
       <c r="D59" s="7"/>
@@ -4311,10 +4269,10 @@
       <c r="S59" s="7"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22" t="s">
         <v>223</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -4327,7 +4285,7 @@
         <v>23</v>
       </c>
       <c r="H60" s="12"/>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="23" t="s">
         <v>225</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -4338,31 +4296,31 @@
         <v>26</v>
       </c>
       <c r="M60" s="12"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H61" s="12"/>
-      <c r="I61" s="27" t="s">
+      <c r="I61" s="23" t="s">
         <v>92</v>
       </c>
       <c r="J61" s="10" t="s">
@@ -4373,31 +4331,31 @@
         <v>26</v>
       </c>
       <c r="M61" s="12"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H62" s="12"/>
-      <c r="I62" s="27" t="s">
+      <c r="I62" s="23" t="s">
         <v>96</v>
       </c>
       <c r="J62" s="10" t="s">
@@ -4408,31 +4366,31 @@
         <v>26</v>
       </c>
       <c r="M62" s="12"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="45" spans="1:19">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="12"/>
-      <c r="I63" s="27" t="s">
+      <c r="I63" s="23" t="s">
         <v>100</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -4443,31 +4401,31 @@
         <v>26</v>
       </c>
       <c r="M63" s="12"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="45" spans="1:19">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H64" s="12"/>
-      <c r="I64" s="27" t="s">
+      <c r="I64" s="23" t="s">
         <v>104</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -4478,31 +4436,31 @@
         <v>26</v>
       </c>
       <c r="M64" s="12"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="45" spans="1:19">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23" t="s">
         <v>106</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H65" s="12"/>
-      <c r="I65" s="27" t="s">
+      <c r="I65" s="23" t="s">
         <v>108</v>
       </c>
       <c r="J65" s="10" t="s">
@@ -4513,17 +4471,17 @@
         <v>26</v>
       </c>
       <c r="M65" s="12"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25" t="s">
         <v>231</v>
       </c>
       <c r="D66" s="7"/>
@@ -4544,23 +4502,23 @@
       <c r="S66" s="7"/>
     </row>
     <row r="67" customFormat="1" ht="45" spans="1:19">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="33" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="28" t="s">
         <v>232</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="12"/>
-      <c r="I67" s="27" t="s">
+      <c r="I67" s="23" t="s">
         <v>234</v>
       </c>
       <c r="J67" s="10" t="s">
@@ -4571,31 +4529,31 @@
         <v>26</v>
       </c>
       <c r="M67" s="12"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" customFormat="1" ht="45" spans="1:19">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="33" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="28" t="s">
         <v>235</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="12"/>
-      <c r="I68" s="27" t="s">
+      <c r="I68" s="23" t="s">
         <v>237</v>
       </c>
       <c r="J68" s="10" t="s">
@@ -4606,31 +4564,31 @@
         <v>26</v>
       </c>
       <c r="M68" s="12"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="45" spans="1:19">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23" t="s">
         <v>239</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="12"/>
-      <c r="I69" s="27" t="s">
+      <c r="I69" s="23" t="s">
         <v>241</v>
       </c>
       <c r="J69" s="10" t="s">
@@ -4640,53 +4598,53 @@
       <c r="L69" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="45" spans="1:19">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="30" t="s">
         <v>243</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="45"/>
-      <c r="I70" s="27" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="23" t="s">
         <v>245</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="K70" s="46"/>
-      <c r="L70" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="48"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25" t="s">
         <v>247</v>
       </c>
       <c r="D71" s="7"/>
@@ -4707,23 +4665,23 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="45" spans="1:19">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23" t="s">
         <v>248</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H72" s="12"/>
-      <c r="I72" s="27" t="s">
+      <c r="I72" s="23" t="s">
         <v>250</v>
       </c>
       <c r="J72" s="10" t="s">
@@ -4734,17 +4692,17 @@
         <v>26</v>
       </c>
       <c r="M72" s="12"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29" t="s">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
         <v>251</v>
       </c>
       <c r="D73" s="7"/>
@@ -4765,23 +4723,23 @@
       <c r="S73" s="7"/>
     </row>
     <row r="74" customHeight="1" spans="1:19">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22" t="s">
         <v>252</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="12"/>
-      <c r="I74" s="27" t="s">
+      <c r="I74" s="23" t="s">
         <v>254</v>
       </c>
       <c r="J74" s="10" t="s">
@@ -4792,19 +4750,19 @@
         <v>26</v>
       </c>
       <c r="M74" s="12"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="29"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="7"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4823,9 +4781,9 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25" t="s">
         <v>257</v>
       </c>
       <c r="D76" s="7"/>
@@ -4846,23 +4804,23 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" customHeight="1" spans="1:19">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22" t="s">
         <v>258</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="12"/>
-      <c r="I77" s="27" t="s">
+      <c r="I77" s="23" t="s">
         <v>260</v>
       </c>
       <c r="J77" s="10" t="s">
@@ -4873,19 +4831,19 @@
         <v>26</v>
       </c>
       <c r="M77" s="12"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C78" s="29"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -4904,9 +4862,9 @@
       <c r="S78" s="7"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25" t="s">
         <v>263</v>
       </c>
       <c r="D79" s="7"/>
@@ -4927,23 +4885,23 @@
       <c r="S79" s="7"/>
     </row>
     <row r="80" customHeight="1" spans="1:19">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22" t="s">
         <v>264</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="12"/>
-      <c r="I80" s="27" t="s">
+      <c r="I80" s="23" t="s">
         <v>266</v>
       </c>
       <c r="J80" s="10" t="s">
@@ -4954,19 +4912,19 @@
         <v>26</v>
       </c>
       <c r="M80" s="12"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29" t="s">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="C81" s="29"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -4985,9 +4943,9 @@
       <c r="S81" s="7"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29" t="s">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25" t="s">
         <v>263</v>
       </c>
       <c r="D82" s="7"/>
@@ -5008,23 +4966,23 @@
       <c r="S82" s="7"/>
     </row>
     <row r="83" customHeight="1" spans="1:19">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22" t="s">
         <v>269</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H83" s="12"/>
-      <c r="I83" s="27" t="s">
+      <c r="I83" s="23" t="s">
         <v>271</v>
       </c>
       <c r="J83" s="10" t="s">
@@ -5035,19 +4993,19 @@
         <v>26</v>
       </c>
       <c r="M83" s="12"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="C84" s="29"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5066,9 +5024,9 @@
       <c r="S84" s="7"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25" t="s">
         <v>263</v>
       </c>
       <c r="D85" s="7"/>
@@ -5089,23 +5047,23 @@
       <c r="S85" s="7"/>
     </row>
     <row r="86" customHeight="1" spans="1:19">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22" t="s">
         <v>272</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="12"/>
-      <c r="I86" s="27" t="s">
+      <c r="I86" s="23" t="s">
         <v>274</v>
       </c>
       <c r="J86" s="10" t="s">
@@ -5116,96 +5074,96 @@
         <v>26</v>
       </c>
       <c r="M86" s="12"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
     </row>
     <row r="87" customHeight="1" spans="1:19">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="30"/>
+      <c r="F87" s="26"/>
       <c r="G87" s="10"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="27"/>
+      <c r="I87" s="23"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
     </row>
     <row r="88" customHeight="1" spans="1:19">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="30"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="10"/>
       <c r="H88" s="12"/>
-      <c r="I88" s="27"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
     </row>
     <row r="89" customHeight="1" spans="1:19">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="30"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="10"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="27"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
     </row>
     <row r="90" customHeight="1" spans="1:19">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="30"/>
+      <c r="F90" s="26"/>
       <c r="G90" s="10"/>
       <c r="H90" s="12"/>
-      <c r="I90" s="27"/>
+      <c r="I90" s="23"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T86">
